--- a/mcmaster_excel/Metric_Sealing_Stainless_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Metric_Sealing_Stainless_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,249 +434,163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Length,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDiameter, mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHeight, mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>For Maximum HoleDiameter, mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>O-Ring TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MaximumPressure, psi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr"/>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Passivated 18-8 Stainless Steel with Buna-N Rubber O-Ring</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>Length,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDiameter, mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHeight, mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>For Maximum HoleDiameter, mm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>O-Ring TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MaximumPressure, psi</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.454</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-40° to 225°</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>92178A157</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>$22.66</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>Passivated 18-8 Stainless Steel with Buna-N Rubber O-Ring</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.454</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-40° to 225°</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>92178A158</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -731,25 +645,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>92178A159</t>
+          <t>92178A157</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>$22.66</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -804,7 +714,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>92178A161</t>
+          <t>92178A158</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -812,17 +722,13 @@
           <t>22.66</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -877,25 +783,21 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>92178A162</t>
+          <t>92178A159</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18.75</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -905,22 +807,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.546</t>
+          <t>3.454</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -950,7 +852,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>92178A163</t>
+          <t>92178A161</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -958,17 +860,13 @@
           <t>22.66</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -978,22 +876,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.546</t>
+          <t>3.454</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1023,98 +921,42 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>92178A164</t>
+          <t>92178A162</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.546</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>T15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-40° to 225°</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>92178A166</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>18.75</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1169,7 +1011,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>92178A167</t>
+          <t>92178A163</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1177,17 +1019,13 @@
           <t>22.66</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1197,22 +1035,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.562</t>
+          <t>4.546</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1242,7 +1080,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>92178A168</t>
+          <t>92178A164</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1250,17 +1088,13 @@
           <t>22.66</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1270,22 +1104,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.562</t>
+          <t>4.546</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1315,25 +1149,21 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>92178A172</t>
+          <t>92178A166</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1343,22 +1173,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.562</t>
+          <t>4.546</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1388,7 +1218,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>92178A173</t>
+          <t>92178A167</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1396,90 +1226,34 @@
           <t>22.66</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.562</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>T25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-40° to 225°</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>92178A174</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1489,22 +1263,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.655</t>
+          <t>5.562</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1534,7 +1308,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>92178A176</t>
+          <t>92178A168</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1542,11 +1316,7 @@
           <t>22.66</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1562,22 +1332,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.655</t>
+          <t>5.562</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1607,19 +1377,15 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>92178A177</t>
+          <t>92178A172</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>27.34</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1635,22 +1401,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.655</t>
+          <t>5.562</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1680,7 +1446,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>92178A178</t>
+          <t>92178A173</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1688,11 +1454,7 @@
           <t>22.66</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1708,65 +1470,358 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.562</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-40° to 225°</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>92178A174</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>10.5</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>3.28</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>6.655</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>T27</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>100,000</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>-40° to 225°</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>1,500</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>ASTM F879M, ISO 7380</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>92178A176</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6.655</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-40° to 225°</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>92178A177</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.655</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-40° to 225°</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>92178A178</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.655</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-40° to 225°</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>92178A179</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>22.66</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
